--- a/data/excel/2025/02/24.xlsx
+++ b/data/excel/2025/02/24.xlsx
@@ -16,22 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
+    <t>Min Price</t>
+  </si>
+  <si>
+    <t>Avg Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
     <t>Max Price</t>
   </si>
   <si>
-    <t>Min Price</t>
-  </si>
-  <si>
-    <t>Avg Price</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Unit</t>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
   </si>
   <si>
     <t>2025-02-24</t>
@@ -40,43 +52,34 @@
     <t>Tomato Big(Nepali)</t>
   </si>
   <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>Tomato Big(Indian)</t>
   </si>
   <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>Tomato Small(Terai)</t>
+  </si>
+  <si>
     <t>22.00</t>
   </si>
   <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>Tomato Small(Terai)</t>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>33.00</t>
   </si>
   <si>
     <t>Potato Red</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>33.00</t>
+    <t>Potato Red(Indian)</t>
   </si>
   <si>
     <t>30.00</t>
@@ -85,7 +88,7 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>Potato Red(Indian)</t>
+    <t>73.00</t>
   </si>
   <si>
     <t>70.00</t>
@@ -97,7 +100,7 @@
     <t>Onion Dry (Indian)</t>
   </si>
   <si>
-    <t>73.00</t>
+    <t>25.00</t>
   </si>
   <si>
     <t>Carrot(Local)</t>
@@ -106,15 +109,15 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>Carrot(Terai)</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>Cabbage(Local)</t>
+  </si>
+  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t>12.33</t>
   </si>
   <si>
-    <t>Cabbage(Local)</t>
-  </si>
-  <si>
     <t>Cabbage(Terai)</t>
   </si>
   <si>
@@ -187,22 +187,25 @@
     <t>French Bean(Hybrid)</t>
   </si>
   <si>
+    <t>French Bean(Rajma)</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
     <t>90.00</t>
   </si>
   <si>
     <t>95.00</t>
   </si>
   <si>
-    <t>French Bean(Rajma)</t>
-  </si>
-  <si>
-    <t>100.00</t>
+    <t>47.67</t>
   </si>
   <si>
     <t>Sword Bean</t>
   </si>
   <si>
-    <t>47.67</t>
+    <t>125.00</t>
   </si>
   <si>
     <t>Bitter Gourd</t>
@@ -214,21 +217,18 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>125.00</t>
-  </si>
-  <si>
     <t>Bottle Gourd</t>
   </si>
   <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>Smooth Gourd</t>
+  </si>
+  <si>
     <t>110.00</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>Smooth Gourd</t>
-  </si>
-  <si>
     <t>Pumpkin</t>
   </si>
   <si>
@@ -277,33 +277,33 @@
     <t>Bakula</t>
   </si>
   <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
     <t>Yam</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
     <t>Mushroom(Kanya)</t>
   </si>
   <si>
+    <t>Mushroom(Button)</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
     <t>350.00</t>
   </si>
   <si>
     <t>376.67</t>
   </si>
   <si>
-    <t>Mushroom(Button)</t>
-  </si>
-  <si>
-    <t>400.00</t>
-  </si>
-  <si>
     <t>Brocauli</t>
   </si>
   <si>
@@ -340,18 +340,18 @@
     <t>126.67</t>
   </si>
   <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>276.67</t>
+  </si>
+  <si>
     <t>Parseley</t>
   </si>
   <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>276.67</t>
-  </si>
-  <si>
     <t>Fennel Leaf</t>
   </si>
   <si>
@@ -376,15 +376,15 @@
     <t>Tofu</t>
   </si>
   <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
     <t>Gundruk</t>
   </si>
   <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>290.00</t>
-  </si>
-  <si>
     <t>Apple(Jholey)</t>
   </si>
   <si>
@@ -409,42 +409,42 @@
     <t>145.00</t>
   </si>
   <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
     <t>Lime</t>
   </si>
   <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>175.00</t>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>353.33</t>
   </si>
   <si>
     <t>Pomegranate</t>
   </si>
   <si>
-    <t>380.00</t>
-  </si>
-  <si>
-    <t>330.00</t>
-  </si>
-  <si>
-    <t>353.33</t>
-  </si>
-  <si>
     <t>153.33</t>
   </si>
   <si>
     <t>Grapes(Green)</t>
   </si>
   <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>Grapes(Black)</t>
+  </si>
+  <si>
     <t>230.00</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>Grapes(Black)</t>
-  </si>
-  <si>
     <t>165.00</t>
   </si>
   <si>
@@ -505,18 +505,18 @@
     <t>Strawberry</t>
   </si>
   <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>463.33</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
     <t>480.00</t>
   </si>
   <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>463.33</t>
-  </si>
-  <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
     <t>Ginger</t>
   </si>
   <si>
@@ -556,28 +556,28 @@
     <t>Clive Green</t>
   </si>
   <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>386.67</t>
+  </si>
+  <si>
     <t>Fish Fresh(Rahu)</t>
   </si>
   <si>
-    <t>420.00</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>386.67</t>
-  </si>
-  <si>
     <t>Fish Fresh(Bachuwa)</t>
   </si>
   <si>
     <t>Fish Fresh(Chhadi)</t>
   </si>
   <si>
+    <t>Kg</t>
+  </si>
+  <si>
     <t>King Oyster</t>
-  </si>
-  <si>
-    <t>Kg</t>
   </si>
   <si>
     <t>Lentinula Edodes</t>
@@ -901,213 +901,213 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -1116,18 +1116,18 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -1136,24 +1136,24 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -1181,19 +1181,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
@@ -1201,39 +1201,39 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>41</v>
@@ -1241,36 +1241,36 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -1281,19 +1281,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
@@ -1301,19 +1301,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>
@@ -1321,16 +1321,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
@@ -1341,16 +1341,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
         <v>52</v>
@@ -1361,179 +1361,179 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
       </c>
       <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
         <v>70</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
         <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
         <v>74</v>
@@ -1541,16 +1541,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
         <v>52</v>
@@ -1561,79 +1561,79 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
       <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
         <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
       </c>
       <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
         <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>32</v>
@@ -1641,56 +1641,56 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
       </c>
       <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>82</v>
       </c>
       <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
         <v>32</v>
@@ -1701,19 +1701,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
         <v>50</v>
@@ -1721,36 +1721,36 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>85</v>
       </c>
       <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
@@ -1761,39 +1761,39 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
         <v>87</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
         <v>88</v>
-      </c>
-      <c r="E44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
         <v>90</v>
@@ -1801,56 +1801,56 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
         <v>94</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>95</v>
-      </c>
-      <c r="E46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>96</v>
       </c>
       <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
         <v>52</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
         <v>52</v>
@@ -1901,19 +1901,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
@@ -1921,39 +1921,39 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>104</v>
       </c>
       <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
         <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
         <v>107</v>
@@ -1961,39 +1961,39 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
         <v>108</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>109</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>110</v>
-      </c>
-      <c r="F54" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
         <v>50</v>
@@ -2001,39 +2001,39 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
         <v>109</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>110</v>
-      </c>
-      <c r="F56" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
         <v>50</v>
@@ -2041,13 +2041,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
         <v>116</v>
@@ -2061,39 +2061,39 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" t="s">
         <v>60</v>
-      </c>
-      <c r="E59" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F60" t="s">
         <v>74</v>
@@ -2101,33 +2101,33 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" t="s">
         <v>120</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
         <v>100</v>
@@ -2141,27 +2141,27 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
         <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
         <v>109</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>110</v>
-      </c>
-      <c r="F63" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
@@ -2181,59 +2181,59 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
         <v>124</v>
       </c>
       <c r="E65" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" t="s">
         <v>132</v>
-      </c>
-      <c r="F65" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
         <v>134</v>
       </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>135</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>136</v>
-      </c>
-      <c r="F66" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
         <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F67" t="s">
         <v>138</v>
@@ -2241,36 +2241,36 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" t="s">
         <v>142</v>
       </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>140</v>
-      </c>
-      <c r="F68" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
         <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
         <v>116</v>
@@ -2281,53 +2281,53 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" t="s">
         <v>68</v>
-      </c>
-      <c r="E70" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
         <v>146</v>
       </c>
       <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
         <v>8</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>9</v>
-      </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
         <v>106</v>
@@ -2341,27 +2341,27 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" t="s">
         <v>68</v>
-      </c>
-      <c r="E73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>150</v>
@@ -2381,76 +2381,76 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>153</v>
       </c>
       <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
         <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" t="s">
         <v>68</v>
-      </c>
-      <c r="E77" t="s">
-        <v>60</v>
-      </c>
-      <c r="F77" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
         <v>101</v>
@@ -2461,19 +2461,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
         <v>50</v>
@@ -2481,139 +2481,139 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" t="s">
         <v>60</v>
-      </c>
-      <c r="E80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
         <v>129</v>
       </c>
       <c r="E81" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" t="s">
         <v>65</v>
-      </c>
-      <c r="F81" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>161</v>
       </c>
       <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
         <v>8</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" t="s">
         <v>95</v>
-      </c>
-      <c r="E84" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
         <v>166</v>
       </c>
-      <c r="C85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>163</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>164</v>
-      </c>
-      <c r="F85" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
         <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F86" t="s">
         <v>74</v>
@@ -2621,19 +2621,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
         <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
         <v>168</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
         <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E88" t="s">
         <v>52</v>
@@ -2661,19 +2661,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
         <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F89" t="s">
         <v>90</v>
@@ -2681,19 +2681,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
         <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
         <v>50</v>
@@ -2701,16 +2701,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
         <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
         <v>52</v>
@@ -2721,16 +2721,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
         <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
         <v>52</v>
@@ -2741,73 +2741,73 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
         <v>175</v>
       </c>
       <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
         <v>8</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>9</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94" t="s">
         <v>121</v>
-      </c>
-      <c r="F94" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
         <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
+        <v>120</v>
+      </c>
+      <c r="F95" t="s">
         <v>121</v>
-      </c>
-      <c r="F95" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
         <v>116</v>
@@ -2821,19 +2821,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
         <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F97" t="s">
         <v>50</v>
@@ -2841,93 +2841,93 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
         <v>180</v>
       </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>181</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>182</v>
-      </c>
-      <c r="F98" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>184</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" t="s">
         <v>109</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>110</v>
-      </c>
-      <c r="F99" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
         <v>185</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" t="s">
         <v>109</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>110</v>
-      </c>
-      <c r="F100" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" t="s">
         <v>186</v>
       </c>
-      <c r="C101" t="s">
-        <v>187</v>
-      </c>
       <c r="D101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E101" t="s">
+        <v>120</v>
+      </c>
+      <c r="F101" t="s">
         <v>121</v>
-      </c>
-      <c r="F101" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D102" t="s">
         <v>189</v>
